--- a/config_4.13/fish_3d_yutu_random_2.xlsx
+++ b/config_4.13/fish_3d_yutu_random_2.xlsx
@@ -238,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,19 +422,23 @@
     <t>常规活动鱼boss</t>
   </si>
   <si>
-    <t>40,40,40,141,194</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,34,34,137,190,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,37,37,139,192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>35,35,42,43,44,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>196,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>198,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1203,7 +1203,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>34</v>
@@ -1224,10 +1224,10 @@
         <v>48</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>50</v>
@@ -1260,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>50</v>
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>50</v>
@@ -1310,10 +1310,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="10">
         <v>180</v>
@@ -1322,7 +1322,7 @@
         <v>220</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
@@ -1332,10 +1332,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="10">
         <v>180</v>
@@ -1344,7 +1344,7 @@
         <v>220</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
@@ -1354,10 +1354,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1374,10 +1374,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D8">
         <v>400</v>
@@ -1394,10 +1394,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="10">
         <v>20</v>
@@ -1415,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>51</v>
@@ -1436,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>51</v>
@@ -1458,10 +1458,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="10">
         <v>280</v>
@@ -1480,10 +1480,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="10">
         <v>300</v>
@@ -1492,7 +1492,7 @@
         <v>500</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -1502,10 +1502,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="D14">
         <v>500</v>
@@ -1522,10 +1522,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -1542,10 +1542,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="10">
         <v>3000</v>
@@ -1554,7 +1554,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1562,10 +1562,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="10">
         <v>3000</v>
@@ -1574,7 +1574,7 @@
         <v>3000</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1582,10 +1582,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="26">
         <v>200</v>
@@ -1610,10 +1610,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="26">
         <v>200</v>
@@ -1638,10 +1638,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="26">
         <v>200</v>
@@ -1666,10 +1666,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="26">
         <v>200</v>
@@ -1694,10 +1694,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="26">
         <v>2400</v>
@@ -1722,10 +1722,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="25">
         <v>200</v>
@@ -1748,10 +1748,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="25">
         <v>200</v>
@@ -1774,10 +1774,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="25">
         <v>200</v>
@@ -1800,10 +1800,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="25">
         <v>200</v>
@@ -1826,10 +1826,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="D27" s="25">
         <v>3000</v>
@@ -1852,10 +1852,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="25">
         <v>200</v>
@@ -1878,10 +1878,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="25">
         <v>200</v>
@@ -1904,10 +1904,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="25">
         <v>200</v>
@@ -1930,10 +1930,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" s="25">
         <v>200</v>
@@ -1956,10 +1956,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" s="25">
         <v>3000</v>
@@ -2716,13 +2716,13 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2731,13 +2731,13 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2746,13 +2746,13 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2761,13 +2761,13 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_4.13/fish_3d_yutu_random_2.xlsx
+++ b/config_4.13/fish_3d_yutu_random_2.xlsx
@@ -426,19 +426,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>196,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>198,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,34,34,137,190,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,37,37,139,192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,40,40,141,194</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1313,7 +1313,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" s="10">
         <v>180</v>
@@ -1335,7 +1335,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="10">
         <v>180</v>
@@ -1357,7 +1357,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1505,7 +1505,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14">
         <v>500</v>

--- a/config_4.13/fish_3d_yutu_random_2.xlsx
+++ b/config_4.13/fish_3d_yutu_random_2.xlsx
@@ -298,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>话费鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,6 +435,10 @@
   </si>
   <si>
     <t>40,40,40,141,194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20,21,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1224,10 +1224,10 @@
         <v>48</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="10">
         <v>180</v>
@@ -1335,7 +1335,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="10">
         <v>180</v>
@@ -1357,7 +1357,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1377,7 +1377,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>400</v>
@@ -1483,13 +1483,13 @@
         <v>64</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D13" s="10">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E13" s="10">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>63</v>
@@ -1505,7 +1505,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14">
         <v>500</v>
@@ -1522,10 +1522,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -1542,10 +1542,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="10">
         <v>3000</v>
@@ -1554,7 +1554,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1562,10 +1562,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="10">
         <v>3000</v>
@@ -1574,7 +1574,7 @@
         <v>3000</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1582,10 +1582,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="26">
         <v>200</v>
@@ -1610,10 +1610,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="26">
         <v>200</v>
@@ -1638,10 +1638,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="26">
         <v>200</v>
@@ -1666,10 +1666,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="26">
         <v>200</v>
@@ -1694,10 +1694,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="26">
         <v>2400</v>
@@ -1722,10 +1722,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="25">
         <v>200</v>
@@ -1748,10 +1748,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="25">
         <v>200</v>
@@ -1774,10 +1774,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="25">
         <v>200</v>
@@ -1800,10 +1800,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="25">
         <v>200</v>
@@ -1826,10 +1826,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>81</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>82</v>
       </c>
       <c r="D27" s="25">
         <v>3000</v>
@@ -1852,10 +1852,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="25">
         <v>200</v>
@@ -1878,10 +1878,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="25">
         <v>200</v>
@@ -1904,10 +1904,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="25">
         <v>200</v>
@@ -1930,10 +1930,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="25">
         <v>200</v>
@@ -1956,10 +1956,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="25">
         <v>3000</v>
@@ -2716,13 +2716,13 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2731,13 +2731,13 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2746,13 +2746,13 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2761,13 +2761,13 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
